--- a/myapp/files/80_distances/distances_aggregate2_pValue_Risks.xlsx
+++ b/myapp/files/80_distances/distances_aggregate2_pValue_Risks.xlsx
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>40.6374</v>
+        <v>39.884</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>38.7714</v>
+        <v>50.7801</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>39.048</v>
+        <v>38.2299</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>38.6104</v>
+        <v>51.2243</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>40.9189</v>
+        <v>40.4428</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>41.8412</v>
+        <v>51.5431</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>45.0816</v>
+        <v>44.6056</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>46.152</v>
+        <v>50.0744</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>41.3648</v>
+        <v>40.8886</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>41.2077</v>
+        <v>50.4803</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>39.5675</v>
+        <v>38.7886</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>38.7899</v>
+        <v>50.9328</v>
       </c>
     </row>
     <row r="26">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>2.661</v>
+        <v>2.6589</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0888</v>
+        <v>1.0869</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>5.5855</v>
+        <v>5.5869</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>4.6565</v>
+        <v>4.6545</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>14.5659</v>
+        <v>14.5687</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>14.2689</v>
+        <v>14.2679</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>20.3097</v>
+        <v>20.3096</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>22.0962</v>
+        <v>22.0936</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>13.036</v>
+        <v>13.0365</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>12.3229</v>
+        <v>12.3199</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/80_distances/distances_aggregate2_pValue_Risks.xlsx
+++ b/myapp/files/80_distances/distances_aggregate2_pValue_Risks.xlsx
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>38.7886</v>
+        <v>38.7873</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>50.9328</v>
+        <v>50.9309</v>
       </c>
     </row>
     <row r="26">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>2.6589</v>
+        <v>2.661</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0869</v>
+        <v>1.0889</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>5.5869</v>
+        <v>5.5845</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>4.6545</v>
+        <v>4.6574</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>14.5687</v>
+        <v>14.5681</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>14.2679</v>
+        <v>14.2689</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>20.3096</v>
+        <v>20.3074</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>22.0936</v>
+        <v>22.0933</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>13.0365</v>
+        <v>13.0355</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>12.3199</v>
+        <v>12.3244</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/80_distances/distances_aggregate2_pValue_Risks.xlsx
+++ b/myapp/files/80_distances/distances_aggregate2_pValue_Risks.xlsx
@@ -407,7 +407,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2111</v>
+        <v>0.6255</v>
       </c>
     </row>
     <row r="3">
@@ -421,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>21.9073</v>
+        <v>0.7679</v>
       </c>
     </row>
     <row r="4">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>7.7592</v>
+        <v>0.2007</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>5.2864</v>
+        <v>0.1495</v>
       </c>
     </row>
     <row r="6">
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>21.4114</v>
+        <v>0.6786</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>22.7876</v>
+        <v>0.7453</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>15.7171</v>
+        <v>0.3827</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>14.3193</v>
+        <v>0.4449</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>16.3146</v>
+        <v>0.4573</v>
       </c>
     </row>
     <row r="11">
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>15.1577</v>
+        <v>0.4222</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>9.2056</v>
+        <v>0.3184</v>
       </c>
     </row>
     <row r="13">
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>11.9634</v>
+        <v>0.3801</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>39.884</v>
+        <v>1.0852</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>50.7801</v>
+        <v>1.4115</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>38.2299</v>
+        <v>1.0735</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>51.2243</v>
+        <v>1.3782</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>40.4428</v>
+        <v>1.0784</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>51.5431</v>
+        <v>1.4079</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>44.6056</v>
+        <v>1.3968</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>50.0744</v>
+        <v>1.0278</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>40.8886</v>
+        <v>1.0946</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>50.4803</v>
+        <v>1.4051</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>38.7873</v>
+        <v>1.0754</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>50.9309</v>
+        <v>1.4163</v>
       </c>
     </row>
     <row r="26">
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>12.4422</v>
+        <v>0.3233</v>
       </c>
     </row>
     <row r="27">
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>12.3705</v>
+        <v>0.3915</v>
       </c>
     </row>
     <row r="28">
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>15.5244</v>
+        <v>0.4561</v>
       </c>
     </row>
     <row r="29">
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>13.3006</v>
+        <v>0.3711</v>
       </c>
     </row>
     <row r="30">
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>5.8956</v>
+        <v>0.1466</v>
       </c>
     </row>
     <row r="31">
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>3.5544</v>
+        <v>0.0965</v>
       </c>
     </row>
     <row r="32">
@@ -827,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>10.2168</v>
+        <v>0.3297</v>
       </c>
     </row>
     <row r="33">
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>11.706</v>
+        <v>0.4357</v>
       </c>
     </row>
     <row r="34">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>2.661</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0889</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>5.5845</v>
+        <v>0.1577</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>4.6574</v>
+        <v>0.1379</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>14.5681</v>
+        <v>0.3676</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>14.2689</v>
+        <v>0.4498</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>20.3074</v>
+        <v>0.6541</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>22.0933</v>
+        <v>0.7729</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>13.0355</v>
+        <v>0.3637</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>12.3244</v>
+        <v>0.3807</v>
       </c>
     </row>
   </sheetData>
